--- a/汽柴煤油2.0/eta/FU-连1-连2_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/FU-连1-连2_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="C3" t="n">
-        <v>73.40000000000001</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-1.9</v>
       </c>
       <c r="C5" t="n">
-        <v>46.8</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>6.2</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>20.8</v>
       </c>
       <c r="C7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="8">
@@ -562,7 +562,7 @@
         <v>29.3</v>
       </c>
       <c r="C10" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>88.8</v>
       </c>
       <c r="C11" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         <v>23.7</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>29.6</v>
       </c>
       <c r="C16" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>101.4</v>
       </c>
       <c r="C17" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +679,7 @@
         <v>117.7</v>
       </c>
       <c r="C19" t="n">
-        <v>117.2</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="20">
